--- a/Excel/Práctica/3. Listas en Excel/inmovilizar paneles, Ordenamiento de Celdas en Excel, filtros, Quitar elementos duplicados & filtros avanzados.xlsx
+++ b/Excel/Práctica/3. Listas en Excel/inmovilizar paneles, Ordenamiento de Celdas en Excel, filtros, Quitar elementos duplicados & filtros avanzados.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Filtro Avanzado" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$193</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -1139,15 +1140,15 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1471,10 +1472,10 @@
   <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1531,19 +1532,19 @@
       <c r="F2" s="4">
         <v>73</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1564,19 +1565,19 @@
       <c r="F3" s="4">
         <v>98</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1597,19 +1598,19 @@
       <c r="F4" s="4">
         <v>61</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1650,19 +1651,19 @@
       <c r="F6" s="4">
         <v>91</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1683,19 +1684,19 @@
       <c r="F7" s="4">
         <v>53</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1713,15 +1714,15 @@
       <c r="E8" s="6">
         <v>32587</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1742,19 +1743,19 @@
       <c r="F9" s="4">
         <v>70</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1775,19 +1776,19 @@
       <c r="F10" s="4">
         <v>70</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1848,19 +1849,19 @@
       <c r="F13" s="4">
         <v>92</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1881,17 +1882,17 @@
       <c r="F14" s="4">
         <v>66</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1912,17 +1913,17 @@
       <c r="F15" s="4">
         <v>53</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1963,19 +1964,19 @@
       <c r="F17" s="4">
         <v>104</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1996,19 +1997,19 @@
       <c r="F18" s="4">
         <v>74</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2029,19 +2030,19 @@
       <c r="F19" s="4">
         <v>107</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2079,19 +2080,19 @@
       <c r="E21" s="6">
         <v>32772</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2112,19 +2113,19 @@
       <c r="F22" s="4">
         <v>106</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -2145,19 +2146,19 @@
       <c r="F23" s="4">
         <v>70</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -5571,9 +5572,6 @@
     <row r="195" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
-      <c r="C195" t="s">
-        <v>281</v>
-      </c>
       <c r="D195" s="5">
         <v>700</v>
       </c>
@@ -5676,21 +5674,24 @@
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>281</v>
+      </c>
       <c r="D203" s="5">
         <f>SUBTOTAL(9, D31:D139)</f>
         <v>125500</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F201">
-    <sortState ref="A2:F201">
-      <sortCondition ref="A3"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:F201">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="H6:R6"/>
+    <mergeCell ref="H7:R7"/>
+    <mergeCell ref="H2:R2"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="H4:R4"/>
     <mergeCell ref="H19:R19"/>
     <mergeCell ref="H21:R21"/>
     <mergeCell ref="H22:R22"/>
@@ -5700,15 +5701,52 @@
     <mergeCell ref="H13:R15"/>
     <mergeCell ref="H17:R17"/>
     <mergeCell ref="H18:R18"/>
-    <mergeCell ref="H6:R6"/>
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="H2:R2"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="H4:R4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>